--- a/biology/Botanique/Eriosema_psoraleoides/Eriosema_psoraleoides.xlsx
+++ b/biology/Botanique/Eriosema_psoraleoides/Eriosema_psoraleoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eriosema psoraleoides est une espèce de plantes de la famille des Fabaceae et genre Eriosema, présente en Afrique tropicale et australe[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eriosema psoraleoides est une espèce de plantes de la famille des Fabaceae et genre Eriosema, présente en Afrique tropicale et australe.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante érigée vivace avec des tiges sous-ligneuses ramifiées, grisâtres[3]. La tige principale peut atteindre une hauteur de 2 m[4]. Le dessous des folioles est plus ou moins argenté. Floraison et fructification se produisent pratiquement tout au long de l'année[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante érigée vivace avec des tiges sous-ligneuses ramifiées, grisâtres. La tige principale peut atteindre une hauteur de 2 m. Le dessous des folioles est plus ou moins argenté. Floraison et fructification se produisent pratiquement tout au long de l'année.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Très répandue en Afrique, elle est observée du Sénégal à l'Éthiopie, également vers le sud, en Angola, Zambie, Zimbabwe et au nord-est de l'Afrique du Sud[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très répandue en Afrique, elle est observée du Sénégal à l'Éthiopie, également vers le sud, en Angola, Zambie, Zimbabwe et au nord-est de l'Afrique du Sud.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve dans les savanes herbeuses et boisées, dans la savane marécageuse à la lisière de la galerie forestière, dans la forêt semi-décidue[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve dans les savanes herbeuses et boisées, dans la savane marécageuse à la lisière de la galerie forestière, dans la forêt semi-décidue.
 </t>
         </is>
       </c>
@@ -604,11 +622,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les graines jaunes sont cuisinées[4].
-Toutes les parties de la plantes sont largement utilisées à de très nombreuses fins médicinales. Racines, fleurs et fruits sont employés comme antalgiques, fleurs et fruits comme sédatifs, les feuilles pour traiter des problèmes oculaires, dermatologiques, des infections parasitaires sous-cutanées, feuilles et racines pour faciliter les avortements, traiter les maladies vénériennes ou comme vermifuges[4].
-Les brindilles sont utilisées pour l'hygiène dentaire et buccale, grâce à ses vertus antimicrobiennes[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les graines jaunes sont cuisinées.
+Toutes les parties de la plantes sont largement utilisées à de très nombreuses fins médicinales. Racines, fleurs et fruits sont employés comme antalgiques, fleurs et fruits comme sédatifs, les feuilles pour traiter des problèmes oculaires, dermatologiques, des infections parasitaires sous-cutanées, feuilles et racines pour faciliter les avortements, traiter les maladies vénériennes ou comme vermifuges.
+Les brindilles sont utilisées pour l'hygiène dentaire et buccale, grâce à ses vertus antimicrobiennes.
 </t>
         </is>
       </c>
